--- a/Templates/Product_BasicInfo.xlsx
+++ b/Templates/Product_BasicInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
@@ -61,6 +61,12 @@
     <t xml:space="preserve">New app created for sending Intra Day Calls.</t>
   </si>
   <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
     <t xml:space="preserve">This is a new app for sending intra day calls.</t>
   </si>
   <si>
@@ -82,6 +88,12 @@
     <t xml:space="preserve">New app designed to cater the need for long term call</t>
   </si>
   <si>
+    <t xml:space="preserve">999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Long Term call app created.</t>
   </si>
   <si>
@@ -95,6 +107,12 @@
   </si>
   <si>
     <t xml:space="preserve">New app designed for physical products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12999</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile Phone for sale.</t>
@@ -118,6 +136,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,6 +158,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,12 +232,12 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
@@ -268,78 +288,78 @@
       <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>50</v>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>9999</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>12999</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/Product_BasicInfo.xlsx
+++ b/Templates/Product_BasicInfo.xlsx
@@ -49,6 +49,15 @@
     <t xml:space="preserve">Specification</t>
   </si>
   <si>
+    <t xml:space="preserve">Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CallType</t>
+  </si>
+  <si>
     <t xml:space="preserve">Intra Calls App</t>
   </si>
   <si>
@@ -76,6 +85,15 @@
     <t xml:space="preserve">Android Version – 6.0.1, MIUI- 9.5</t>
   </si>
   <si>
+    <t xml:space="preserve">NSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHORT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Long Term Calls</t>
   </si>
   <si>
@@ -97,31 +115,13 @@
     <t xml:space="preserve">Long Term call app created.</t>
   </si>
   <si>
-    <t xml:space="preserve">Note 5 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINote5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobiles, Mi, Note5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New app designed for physical products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Phone for sale.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latest mobile with all latest technology</t>
+    <t xml:space="preserve">BSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRA</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -274,91 +274,89 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Templates/Product_BasicInfo.xlsx
+++ b/Templates/Product_BasicInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
@@ -92,36 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">SHORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Term Calls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTCalls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LongTerm, Fundamental Calls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New app designed to cater the need for long term call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Term call app created.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRA</t>
   </si>
 </sst>
 </file>
@@ -229,7 +199,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -322,44 +292,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Templates/Product_BasicInfo.xlsx
+++ b/Templates/Product_BasicInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
@@ -58,16 +58,16 @@
     <t xml:space="preserve">CallType</t>
   </si>
   <si>
-    <t xml:space="preserve">Intra Calls App</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntraCall</t>
+    <t xml:space="preserve">Intra Calls App 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntraCall1</t>
   </si>
   <si>
     <t xml:space="preserve">Intraday</t>
   </si>
   <si>
-    <t xml:space="preserve">New app created for sending Intra Day Calls.</t>
+    <t xml:space="preserve">New app 1 created for sending Intra Day Calls.</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -92,6 +92,45 @@
   </si>
   <si>
     <t xml:space="preserve">SHORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intra Calls App 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntraCall2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New app 2 created for sending Intra Day Calls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intra Calls App 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntraCall3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New app 3 created for sending Intra Day Calls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRA</t>
   </si>
 </sst>
 </file>
@@ -199,7 +238,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -207,7 +246,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.9"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
@@ -292,6 +331,82 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Templates/Product_BasicInfo.xlsx
+++ b/Templates/Product_BasicInfo.xlsx
@@ -58,16 +58,16 @@
     <t xml:space="preserve">CallType</t>
   </si>
   <si>
-    <t xml:space="preserve">Intra Calls App 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntraCall1</t>
+    <t xml:space="preserve">Intra Calls App 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntraCall4</t>
   </si>
   <si>
     <t xml:space="preserve">Intraday</t>
   </si>
   <si>
-    <t xml:space="preserve">New app 1 created for sending Intra Day Calls.</t>
+    <t xml:space="preserve">New app 4 created for sending Intra Day Calls.</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -94,13 +94,13 @@
     <t xml:space="preserve">SHORT</t>
   </si>
   <si>
-    <t xml:space="preserve">Intra Calls App 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntraCall2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New app 2 created for sending Intra Day Calls.</t>
+    <t xml:space="preserve">Intra Calls App 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntraCall5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New app 5 created for sending Intra Day Calls.</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
@@ -115,13 +115,13 @@
     <t xml:space="preserve">LONG</t>
   </si>
   <si>
-    <t xml:space="preserve">Intra Calls App 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntraCall3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New app 3 created for sending Intra Day Calls.</t>
+    <t xml:space="preserve">Intra Calls App 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntraCall6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New app 6 created for sending Intra Day Calls.</t>
   </si>
   <si>
     <t xml:space="preserve">30</t>
@@ -246,7 +246,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>

--- a/Templates/Product_BasicInfo.xlsx
+++ b/Templates/Product_BasicInfo.xlsx
@@ -58,10 +58,10 @@
     <t xml:space="preserve">CallType</t>
   </si>
   <si>
-    <t xml:space="preserve">Intra Calls App 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntraCall4</t>
+    <t xml:space="preserve">Intra Calls App 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntraCall7</t>
   </si>
   <si>
     <t xml:space="preserve">Intraday</t>
@@ -94,10 +94,10 @@
     <t xml:space="preserve">SHORT</t>
   </si>
   <si>
-    <t xml:space="preserve">Intra Calls App 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntraCall5</t>
+    <t xml:space="preserve">Intra Calls App 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntraCall8</t>
   </si>
   <si>
     <t xml:space="preserve">New app 5 created for sending Intra Day Calls.</t>
@@ -115,10 +115,10 @@
     <t xml:space="preserve">LONG</t>
   </si>
   <si>
-    <t xml:space="preserve">Intra Calls App 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntraCall6</t>
+    <t xml:space="preserve">Intra Calls App 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntraCall9</t>
   </si>
   <si>
     <t xml:space="preserve">New app 6 created for sending Intra Day Calls.</t>

--- a/Templates/Product_BasicInfo.xlsx
+++ b/Templates/Product_BasicInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
@@ -58,16 +58,16 @@
     <t xml:space="preserve">CallType</t>
   </si>
   <si>
-    <t xml:space="preserve">Intra Calls App 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntraCall7</t>
+    <t xml:space="preserve">Intra Calls App 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntraCall10</t>
   </si>
   <si>
     <t xml:space="preserve">Intraday</t>
   </si>
   <si>
-    <t xml:space="preserve">New app 4 created for sending Intra Day Calls.</t>
+    <t xml:space="preserve">New app 10 created for sending Intra Day Calls.</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -92,45 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">SHORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intra Calls App 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntraCall8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New app 5 created for sending Intra Day Calls.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intra Calls App 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntraCall9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New app 6 created for sending Intra Day Calls.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRA</t>
   </si>
 </sst>
 </file>
@@ -238,10 +199,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -331,82 +292,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Templates/Product_BasicInfo.xlsx
+++ b/Templates/Product_BasicInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
@@ -58,16 +58,25 @@
     <t xml:space="preserve">CallType</t>
   </si>
   <si>
-    <t xml:space="preserve">Intra Calls App 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntraCall10</t>
+    <t xml:space="preserve">No. of Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Fees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intra Calls App 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntraCall12</t>
   </si>
   <si>
     <t xml:space="preserve">Intraday</t>
   </si>
   <si>
-    <t xml:space="preserve">New app 10 created for sending Intra Day Calls.</t>
+    <t xml:space="preserve">New app 12 created for sending Intra Day Calls.</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -88,7 +97,7 @@
     <t xml:space="preserve">NSE</t>
   </si>
   <si>
-    <t xml:space="preserve">EQ</t>
+    <t xml:space="preserve">FUT</t>
   </si>
   <si>
     <t xml:space="preserve">SHORT</t>
@@ -199,10 +208,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -253,43 +262,61 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
